--- a/替代excel/data.xlsx
+++ b/替代excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leah/Documents/CS/Jupyter/projects/替代excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A21E2BC3-2190-0849-80A5-7C00CBD98EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA03FE-8A1B-8949-BFA0-C1CF142470B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{D6C7E561-8A93-E64A-90A6-2BF30DA94FED}"/>
+    <workbookView minimized="1" xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{D6C7E561-8A93-E64A-90A6-2BF30DA94FED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,49 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国</t>
+  </si>
+  <si>
+    <t>欧州</t>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,8 +117,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,12 +441,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA28B59-B941-1F4F-AC37-B3933A334E32}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>450</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>900</v>
+      </c>
+      <c r="F2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>600</v>
+      </c>
+      <c r="F3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="1">
+        <v>43739</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
